--- a/out/production/student_control_system/com/poi/workbook/test.xlsx
+++ b/out/production/student_control_system/com/poi/workbook/test.xlsx
@@ -25024,9 +25024,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{7191F799-5520-4160-A88A-4DC891C5169E}" name="Administrator" id="-650565887" dateTime="2023-11-10T01:48:09"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28128,7 +28126,7 @@
       </c>
       <c r="C149" s="3">
         <f ca="1">ROUND(RAND()*100,0)</f>
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -28140,7 +28138,7 @@
       </c>
       <c r="C150" s="3">
         <f ca="1" t="shared" ref="C150:C159" si="0">ROUND(RAND()*100,0)</f>
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -28152,7 +28150,7 @@
       </c>
       <c r="C151" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -28164,7 +28162,7 @@
       </c>
       <c r="C152" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -28176,7 +28174,7 @@
       </c>
       <c r="C153" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -28188,7 +28186,7 @@
       </c>
       <c r="C154" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -28200,7 +28198,7 @@
       </c>
       <c r="C155" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -28212,7 +28210,7 @@
       </c>
       <c r="C156" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -28224,7 +28222,7 @@
       </c>
       <c r="C157" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -28236,7 +28234,7 @@
       </c>
       <c r="C158" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -28248,7 +28246,7 @@
       </c>
       <c r="C159" s="3">
         <f ca="1" t="shared" si="0"/>
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -28260,7 +28258,7 @@
       </c>
       <c r="C160" s="3">
         <f ca="1" t="shared" ref="C160:C169" si="1">ROUND(RAND()*100,0)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -28272,7 +28270,7 @@
       </c>
       <c r="C161" s="3">
         <f ca="1" t="shared" si="1"/>
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -28284,7 +28282,7 @@
       </c>
       <c r="C162" s="3">
         <f ca="1" t="shared" si="1"/>
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -28296,7 +28294,7 @@
       </c>
       <c r="C163" s="3">
         <f ca="1" t="shared" si="1"/>
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -28308,7 +28306,7 @@
       </c>
       <c r="C164" s="3">
         <f ca="1" t="shared" si="1"/>
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -28320,7 +28318,7 @@
       </c>
       <c r="C165" s="3">
         <f ca="1" t="shared" si="1"/>
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -28332,7 +28330,7 @@
       </c>
       <c r="C166" s="3">
         <f ca="1" t="shared" si="1"/>
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -28344,7 +28342,7 @@
       </c>
       <c r="C167" s="3">
         <f ca="1" t="shared" si="1"/>
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -28356,7 +28354,7 @@
       </c>
       <c r="C168" s="3">
         <f ca="1" t="shared" si="1"/>
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -28368,7 +28366,7 @@
       </c>
       <c r="C169" s="3">
         <f ca="1" t="shared" si="1"/>
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -28380,7 +28378,7 @@
       </c>
       <c r="C170" s="3">
         <f ca="1" t="shared" ref="C170:C179" si="2">ROUND(RAND()*100,0)</f>
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -28392,7 +28390,7 @@
       </c>
       <c r="C171" s="3">
         <f ca="1" t="shared" si="2"/>
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -28404,7 +28402,7 @@
       </c>
       <c r="C172" s="3">
         <f ca="1" t="shared" si="2"/>
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -28416,7 +28414,7 @@
       </c>
       <c r="C173" s="3">
         <f ca="1" t="shared" si="2"/>
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -28428,7 +28426,7 @@
       </c>
       <c r="C174" s="3">
         <f ca="1" t="shared" si="2"/>
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -28440,7 +28438,7 @@
       </c>
       <c r="C175" s="3">
         <f ca="1" t="shared" si="2"/>
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -28452,7 +28450,7 @@
       </c>
       <c r="C176" s="3">
         <f ca="1" t="shared" si="2"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -28464,7 +28462,7 @@
       </c>
       <c r="C177" s="3">
         <f ca="1" t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -28476,7 +28474,7 @@
       </c>
       <c r="C178" s="3">
         <f ca="1" t="shared" si="2"/>
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -28488,7 +28486,7 @@
       </c>
       <c r="C179" s="3">
         <f ca="1" t="shared" si="2"/>
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -28500,7 +28498,7 @@
       </c>
       <c r="C180" s="3">
         <f ca="1" t="shared" ref="C180:C189" si="3">ROUND(RAND()*100,0)</f>
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -28512,7 +28510,7 @@
       </c>
       <c r="C181" s="3">
         <f ca="1" t="shared" si="3"/>
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -28524,7 +28522,7 @@
       </c>
       <c r="C182" s="3">
         <f ca="1" t="shared" si="3"/>
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -28536,7 +28534,7 @@
       </c>
       <c r="C183" s="3">
         <f ca="1" t="shared" si="3"/>
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -28548,7 +28546,7 @@
       </c>
       <c r="C184" s="3">
         <f ca="1" t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -28560,7 +28558,7 @@
       </c>
       <c r="C185" s="3">
         <f ca="1" t="shared" si="3"/>
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -28572,7 +28570,7 @@
       </c>
       <c r="C186" s="3">
         <f ca="1" t="shared" si="3"/>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -28584,7 +28582,7 @@
       </c>
       <c r="C187" s="3">
         <f ca="1" t="shared" si="3"/>
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -28596,7 +28594,7 @@
       </c>
       <c r="C188" s="3">
         <f ca="1" t="shared" si="3"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -28608,7 +28606,7 @@
       </c>
       <c r="C189" s="3">
         <f ca="1" t="shared" si="3"/>
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -28620,7 +28618,7 @@
       </c>
       <c r="C190" s="3">
         <f ca="1" t="shared" ref="C190:C199" si="4">ROUND(RAND()*100,0)</f>
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -28632,7 +28630,7 @@
       </c>
       <c r="C191" s="3">
         <f ca="1" t="shared" si="4"/>
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -28644,7 +28642,7 @@
       </c>
       <c r="C192" s="3">
         <f ca="1" t="shared" si="4"/>
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -28656,7 +28654,7 @@
       </c>
       <c r="C193" s="3">
         <f ca="1" t="shared" si="4"/>
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -28668,7 +28666,7 @@
       </c>
       <c r="C194" s="3">
         <f ca="1" t="shared" si="4"/>
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -28680,7 +28678,7 @@
       </c>
       <c r="C195" s="3">
         <f ca="1" t="shared" si="4"/>
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -28692,7 +28690,7 @@
       </c>
       <c r="C196" s="3">
         <f ca="1" t="shared" si="4"/>
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -28716,7 +28714,7 @@
       </c>
       <c r="C198" s="3">
         <f ca="1" t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -28728,7 +28726,7 @@
       </c>
       <c r="C199" s="3">
         <f ca="1" t="shared" si="4"/>
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -28740,7 +28738,7 @@
       </c>
       <c r="C200" s="3">
         <f ca="1" t="shared" ref="C200:C209" si="5">ROUND(RAND()*100,0)</f>
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -28752,7 +28750,7 @@
       </c>
       <c r="C201" s="3">
         <f ca="1" t="shared" si="5"/>
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -28764,7 +28762,7 @@
       </c>
       <c r="C202" s="3">
         <f ca="1" t="shared" si="5"/>
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -28776,7 +28774,7 @@
       </c>
       <c r="C203" s="3">
         <f ca="1" t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -28788,7 +28786,7 @@
       </c>
       <c r="C204" s="3">
         <f ca="1" t="shared" si="5"/>
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -28800,7 +28798,7 @@
       </c>
       <c r="C205" s="3">
         <f ca="1" t="shared" si="5"/>
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -28812,7 +28810,7 @@
       </c>
       <c r="C206" s="3">
         <f ca="1" t="shared" si="5"/>
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -28824,7 +28822,7 @@
       </c>
       <c r="C207" s="3">
         <f ca="1" t="shared" si="5"/>
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -28836,7 +28834,7 @@
       </c>
       <c r="C208" s="3">
         <f ca="1" t="shared" si="5"/>
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -28848,7 +28846,7 @@
       </c>
       <c r="C209" s="3">
         <f ca="1" t="shared" si="5"/>
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -28860,7 +28858,7 @@
       </c>
       <c r="C210" s="3">
         <f ca="1" t="shared" ref="C210:C219" si="6">ROUND(RAND()*100,0)</f>
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -28872,7 +28870,7 @@
       </c>
       <c r="C211" s="3">
         <f ca="1" t="shared" si="6"/>
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -28884,7 +28882,7 @@
       </c>
       <c r="C212" s="3">
         <f ca="1" t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -28896,7 +28894,7 @@
       </c>
       <c r="C213" s="3">
         <f ca="1" t="shared" si="6"/>
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -28908,7 +28906,7 @@
       </c>
       <c r="C214" s="3">
         <f ca="1" t="shared" si="6"/>
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -28920,7 +28918,7 @@
       </c>
       <c r="C215" s="3">
         <f ca="1" t="shared" si="6"/>
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -28932,7 +28930,7 @@
       </c>
       <c r="C216" s="3">
         <f ca="1" t="shared" si="6"/>
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -28944,7 +28942,7 @@
       </c>
       <c r="C217" s="3">
         <f ca="1" t="shared" si="6"/>
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -28956,7 +28954,7 @@
       </c>
       <c r="C218" s="3">
         <f ca="1" t="shared" si="6"/>
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -28968,7 +28966,7 @@
       </c>
       <c r="C219" s="3">
         <f ca="1" t="shared" si="6"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -28980,7 +28978,7 @@
       </c>
       <c r="C220" s="3">
         <f ca="1" t="shared" ref="C220:C229" si="7">ROUND(RAND()*100,0)</f>
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -28992,7 +28990,7 @@
       </c>
       <c r="C221" s="3">
         <f ca="1" t="shared" si="7"/>
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -29004,7 +29002,7 @@
       </c>
       <c r="C222" s="3">
         <f ca="1" t="shared" si="7"/>
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -29016,7 +29014,7 @@
       </c>
       <c r="C223" s="3">
         <f ca="1" t="shared" si="7"/>
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -29028,7 +29026,7 @@
       </c>
       <c r="C224" s="3">
         <f ca="1" t="shared" si="7"/>
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -29040,7 +29038,7 @@
       </c>
       <c r="C225" s="3">
         <f ca="1" t="shared" si="7"/>
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -29052,7 +29050,7 @@
       </c>
       <c r="C226" s="3">
         <f ca="1" t="shared" si="7"/>
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -29064,7 +29062,7 @@
       </c>
       <c r="C227" s="3">
         <f ca="1" t="shared" si="7"/>
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -29076,7 +29074,7 @@
       </c>
       <c r="C228" s="3">
         <f ca="1" t="shared" si="7"/>
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -29088,7 +29086,7 @@
       </c>
       <c r="C229" s="3">
         <f ca="1" t="shared" si="7"/>
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -29100,7 +29098,7 @@
       </c>
       <c r="C230" s="3">
         <f ca="1" t="shared" ref="C230:C239" si="8">ROUND(RAND()*100,0)</f>
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -29112,7 +29110,7 @@
       </c>
       <c r="C231" s="3">
         <f ca="1" t="shared" si="8"/>
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -29124,7 +29122,7 @@
       </c>
       <c r="C232" s="3">
         <f ca="1" t="shared" si="8"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -29136,7 +29134,7 @@
       </c>
       <c r="C233" s="3">
         <f ca="1" t="shared" si="8"/>
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -29148,7 +29146,7 @@
       </c>
       <c r="C234" s="3">
         <f ca="1" t="shared" si="8"/>
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -29160,7 +29158,7 @@
       </c>
       <c r="C235" s="3">
         <f ca="1" t="shared" si="8"/>
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -29172,7 +29170,7 @@
       </c>
       <c r="C236" s="3">
         <f ca="1" t="shared" si="8"/>
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -29184,7 +29182,7 @@
       </c>
       <c r="C237" s="3">
         <f ca="1" t="shared" si="8"/>
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -29196,7 +29194,7 @@
       </c>
       <c r="C238" s="3">
         <f ca="1" t="shared" si="8"/>
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -29208,7 +29206,7 @@
       </c>
       <c r="C239" s="3">
         <f ca="1" t="shared" si="8"/>
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -29220,7 +29218,7 @@
       </c>
       <c r="C240" s="3">
         <f ca="1" t="shared" ref="C240:C249" si="9">ROUND(RAND()*100,0)</f>
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -29232,7 +29230,7 @@
       </c>
       <c r="C241" s="3">
         <f ca="1" t="shared" si="9"/>
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -29244,7 +29242,7 @@
       </c>
       <c r="C242" s="3">
         <f ca="1" t="shared" si="9"/>
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -29256,7 +29254,7 @@
       </c>
       <c r="C243" s="3">
         <f ca="1" t="shared" si="9"/>
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -29268,7 +29266,7 @@
       </c>
       <c r="C244" s="3">
         <f ca="1" t="shared" si="9"/>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -29280,7 +29278,7 @@
       </c>
       <c r="C245" s="3">
         <f ca="1" t="shared" si="9"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -29292,7 +29290,7 @@
       </c>
       <c r="C246" s="3">
         <f ca="1" t="shared" si="9"/>
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -29304,7 +29302,7 @@
       </c>
       <c r="C247" s="3">
         <f ca="1" t="shared" ref="C247:C252" si="10">ROUND(RAND()*100,0)</f>
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -29316,7 +29314,7 @@
       </c>
       <c r="C248" s="3">
         <f ca="1" t="shared" si="10"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -29328,7 +29326,7 @@
       </c>
       <c r="C249" s="3">
         <f ca="1" t="shared" si="10"/>
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -29340,7 +29338,7 @@
       </c>
       <c r="C250" s="3">
         <f ca="1" t="shared" si="10"/>
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -29352,7 +29350,7 @@
       </c>
       <c r="C251" s="3">
         <f ca="1" t="shared" si="10"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -29364,7 +29362,7 @@
       </c>
       <c r="C252" s="3">
         <f ca="1" t="shared" si="10"/>
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -29376,7 +29374,7 @@
       </c>
       <c r="C253" s="3">
         <f ca="1" t="shared" ref="C253:C262" si="11">ROUND(RAND()*100,0)</f>
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -29388,7 +29386,7 @@
       </c>
       <c r="C254" s="3">
         <f ca="1" t="shared" si="11"/>
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -29400,7 +29398,7 @@
       </c>
       <c r="C255" s="3">
         <f ca="1" t="shared" si="11"/>
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -29412,7 +29410,7 @@
       </c>
       <c r="C256" s="3">
         <f ca="1" t="shared" si="11"/>
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -29424,7 +29422,7 @@
       </c>
       <c r="C257" s="3">
         <f ca="1" t="shared" si="11"/>
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -29436,7 +29434,7 @@
       </c>
       <c r="C258" s="3">
         <f ca="1" t="shared" si="11"/>
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -29448,7 +29446,7 @@
       </c>
       <c r="C259" s="3">
         <f ca="1" t="shared" si="11"/>
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -29472,7 +29470,7 @@
       </c>
       <c r="C261" s="3">
         <f ca="1" t="shared" si="11"/>
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -29496,7 +29494,7 @@
       </c>
       <c r="C263" s="3">
         <f ca="1" t="shared" ref="C263:C272" si="12">ROUND(RAND()*100,0)</f>
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -29508,7 +29506,7 @@
       </c>
       <c r="C264" s="3">
         <f ca="1" t="shared" si="12"/>
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -29520,7 +29518,7 @@
       </c>
       <c r="C265" s="3">
         <f ca="1" t="shared" si="12"/>
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -29532,7 +29530,7 @@
       </c>
       <c r="C266" s="3">
         <f ca="1" t="shared" si="12"/>
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -29544,7 +29542,7 @@
       </c>
       <c r="C267" s="3">
         <f ca="1" t="shared" si="12"/>
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -29556,7 +29554,7 @@
       </c>
       <c r="C268" s="3">
         <f ca="1" t="shared" si="12"/>
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -29568,7 +29566,7 @@
       </c>
       <c r="C269" s="3">
         <f ca="1" t="shared" si="12"/>
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -29580,7 +29578,7 @@
       </c>
       <c r="C270" s="3">
         <f ca="1" t="shared" si="12"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -29592,7 +29590,7 @@
       </c>
       <c r="C271" s="3">
         <f ca="1" t="shared" si="12"/>
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -29604,7 +29602,7 @@
       </c>
       <c r="C272" s="3">
         <f ca="1" t="shared" si="12"/>
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -29616,7 +29614,7 @@
       </c>
       <c r="C273" s="3">
         <f ca="1" t="shared" ref="C273:C282" si="13">ROUND(RAND()*100,0)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -29628,7 +29626,7 @@
       </c>
       <c r="C274" s="3">
         <f ca="1" t="shared" si="13"/>
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -29640,7 +29638,7 @@
       </c>
       <c r="C275" s="3">
         <f ca="1" t="shared" si="13"/>
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -29652,7 +29650,7 @@
       </c>
       <c r="C276" s="3">
         <f ca="1" t="shared" si="13"/>
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -29664,7 +29662,7 @@
       </c>
       <c r="C277" s="3">
         <f ca="1" t="shared" si="13"/>
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -29676,7 +29674,7 @@
       </c>
       <c r="C278" s="3">
         <f ca="1" t="shared" si="13"/>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -29688,7 +29686,7 @@
       </c>
       <c r="C279" s="3">
         <f ca="1" t="shared" si="13"/>
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -29700,7 +29698,7 @@
       </c>
       <c r="C280" s="3">
         <f ca="1" t="shared" si="13"/>
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -29712,7 +29710,7 @@
       </c>
       <c r="C281" s="3">
         <f ca="1" t="shared" si="13"/>
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -29724,7 +29722,7 @@
       </c>
       <c r="C282" s="3">
         <f ca="1" t="shared" si="13"/>
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -29736,7 +29734,7 @@
       </c>
       <c r="C283" s="3">
         <f ca="1" t="shared" ref="C283:C295" si="14">ROUND(RAND()*100,0)</f>
-        <v>2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -29748,7 +29746,7 @@
       </c>
       <c r="C284" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -29760,7 +29758,7 @@
       </c>
       <c r="C285" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -29784,7 +29782,7 @@
       </c>
       <c r="C287" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -29796,7 +29794,7 @@
       </c>
       <c r="C288" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -29808,7 +29806,7 @@
       </c>
       <c r="C289" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -29820,7 +29818,7 @@
       </c>
       <c r="C290" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -29832,7 +29830,7 @@
       </c>
       <c r="C291" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -29844,7 +29842,7 @@
       </c>
       <c r="C292" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -29856,7 +29854,7 @@
       </c>
       <c r="C293" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -29868,7 +29866,7 @@
       </c>
       <c r="C294" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -29880,7 +29878,7 @@
       </c>
       <c r="C295" s="3">
         <f ca="1" t="shared" si="14"/>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -29892,7 +29890,7 @@
       </c>
       <c r="C296" s="3">
         <f ca="1" t="shared" ref="C296:C305" si="15">ROUND(RAND()*100,0)</f>
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -29904,7 +29902,7 @@
       </c>
       <c r="C297" s="3">
         <f ca="1" t="shared" si="15"/>
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -29916,7 +29914,7 @@
       </c>
       <c r="C298" s="3">
         <f ca="1" t="shared" si="15"/>
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -29928,7 +29926,7 @@
       </c>
       <c r="C299" s="3">
         <f ca="1" t="shared" si="15"/>
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -29940,7 +29938,7 @@
       </c>
       <c r="C300" s="3">
         <f ca="1" t="shared" si="15"/>
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -29952,7 +29950,7 @@
       </c>
       <c r="C301" s="3">
         <f ca="1" t="shared" si="15"/>
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -29964,7 +29962,7 @@
       </c>
       <c r="C302" s="3">
         <f ca="1" t="shared" si="15"/>
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -29976,7 +29974,7 @@
       </c>
       <c r="C303" s="3">
         <f ca="1" t="shared" si="15"/>
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -29988,7 +29986,7 @@
       </c>
       <c r="C304" s="3">
         <f ca="1" t="shared" si="15"/>
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -30000,7 +29998,7 @@
       </c>
       <c r="C305" s="3">
         <f ca="1" t="shared" si="15"/>
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -30012,7 +30010,7 @@
       </c>
       <c r="C306" s="3">
         <f ca="1" t="shared" ref="C306:C315" si="16">ROUND(RAND()*100,0)</f>
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -30024,7 +30022,7 @@
       </c>
       <c r="C307" s="3">
         <f ca="1" t="shared" si="16"/>
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -30036,7 +30034,7 @@
       </c>
       <c r="C308" s="3">
         <f ca="1" t="shared" si="16"/>
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -30048,7 +30046,7 @@
       </c>
       <c r="C309" s="3">
         <f ca="1" t="shared" si="16"/>
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -30060,7 +30058,7 @@
       </c>
       <c r="C310" s="3">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -30072,7 +30070,7 @@
       </c>
       <c r="C311" s="3">
         <f ca="1" t="shared" si="16"/>
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -30084,7 +30082,7 @@
       </c>
       <c r="C312" s="3">
         <f ca="1" t="shared" si="16"/>
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -30096,7 +30094,7 @@
       </c>
       <c r="C313" s="3">
         <f ca="1" t="shared" si="16"/>
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -30108,7 +30106,7 @@
       </c>
       <c r="C314" s="3">
         <f ca="1" t="shared" si="16"/>
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -30120,7 +30118,7 @@
       </c>
       <c r="C315" s="3">
         <f ca="1" t="shared" si="16"/>
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -30132,7 +30130,7 @@
       </c>
       <c r="C316" s="3">
         <f ca="1" t="shared" ref="C316:C325" si="17">ROUND(RAND()*100,0)</f>
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -30144,7 +30142,7 @@
       </c>
       <c r="C317" s="3">
         <f ca="1" t="shared" si="17"/>
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -30156,7 +30154,7 @@
       </c>
       <c r="C318" s="3">
         <f ca="1" t="shared" si="17"/>
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -30168,7 +30166,7 @@
       </c>
       <c r="C319" s="3">
         <f ca="1" t="shared" si="17"/>
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -30180,7 +30178,7 @@
       </c>
       <c r="C320" s="3">
         <f ca="1" t="shared" si="17"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -30192,7 +30190,7 @@
       </c>
       <c r="C321" s="3">
         <f ca="1" t="shared" si="17"/>
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -30204,7 +30202,7 @@
       </c>
       <c r="C322" s="3">
         <f ca="1" t="shared" si="17"/>
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -30216,7 +30214,7 @@
       </c>
       <c r="C323" s="3">
         <f ca="1" t="shared" si="17"/>
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -30228,7 +30226,7 @@
       </c>
       <c r="C324" s="3">
         <f ca="1" t="shared" si="17"/>
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -30240,7 +30238,7 @@
       </c>
       <c r="C325" s="3">
         <f ca="1" t="shared" si="17"/>
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -30252,7 +30250,7 @@
       </c>
       <c r="C326" s="3">
         <f ca="1" t="shared" ref="C326:C335" si="18">ROUND(RAND()*100,0)</f>
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -30264,7 +30262,7 @@
       </c>
       <c r="C327" s="3">
         <f ca="1" t="shared" si="18"/>
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -30276,7 +30274,7 @@
       </c>
       <c r="C328" s="3">
         <f ca="1" t="shared" si="18"/>
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -30288,7 +30286,7 @@
       </c>
       <c r="C329" s="3">
         <f ca="1" t="shared" si="18"/>
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -30300,7 +30298,7 @@
       </c>
       <c r="C330" s="3">
         <f ca="1" t="shared" si="18"/>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -30312,7 +30310,7 @@
       </c>
       <c r="C331" s="3">
         <f ca="1" t="shared" si="18"/>
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -30324,7 +30322,7 @@
       </c>
       <c r="C332" s="3">
         <f ca="1" t="shared" si="18"/>
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -30336,7 +30334,7 @@
       </c>
       <c r="C333" s="3">
         <f ca="1" t="shared" si="18"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -30348,7 +30346,7 @@
       </c>
       <c r="C334" s="3">
         <f ca="1" t="shared" si="18"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -30360,7 +30358,7 @@
       </c>
       <c r="C335" s="3">
         <f ca="1" t="shared" si="18"/>
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -30372,7 +30370,7 @@
       </c>
       <c r="C336" s="3">
         <f ca="1" t="shared" ref="C336:C344" si="19">ROUND(RAND()*100,0)</f>
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -30384,7 +30382,7 @@
       </c>
       <c r="C337" s="3">
         <f ca="1" t="shared" si="19"/>
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -30396,7 +30394,7 @@
       </c>
       <c r="C338" s="3">
         <f ca="1" t="shared" si="19"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -30408,7 +30406,7 @@
       </c>
       <c r="C339" s="3">
         <f ca="1" t="shared" si="19"/>
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -30420,7 +30418,7 @@
       </c>
       <c r="C340" s="3">
         <f ca="1" t="shared" si="19"/>
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -30432,7 +30430,7 @@
       </c>
       <c r="C341" s="3">
         <f ca="1" t="shared" si="19"/>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -30444,7 +30442,7 @@
       </c>
       <c r="C342" s="3">
         <f ca="1" t="shared" si="19"/>
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -30456,7 +30454,7 @@
       </c>
       <c r="C343" s="3">
         <f ca="1" t="shared" si="19"/>
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -30468,7 +30466,7 @@
       </c>
       <c r="C344" s="3">
         <f ca="1" t="shared" si="19"/>
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
